--- a/StructureDefinition-be-mycareneteagreementmessageheader.xlsx
+++ b/StructureDefinition-be-mycareneteagreementmessageheader.xlsx
@@ -9,13 +9,13 @@
     <sheet name="Elements" r:id="rId3" sheetId="1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="true">Elements!$A$1:$AL$49</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="true">Elements!$A$1:$AL$50</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1680" uniqueCount="327">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1715" uniqueCount="330">
   <si>
     <t>Path</t>
   </si>
@@ -374,6 +374,13 @@
     <t>http://hl7.org/fhir/ValueSet/message-events</t>
   </si>
   <si>
+    <t xml:space="preserve">type:$this}
+</t>
+  </si>
+  <si>
+    <t>closed</t>
+  </si>
+  <si>
     <t>MSH-9.2</t>
   </si>
   <si>
@@ -381,6 +388,9 @@
   </si>
   <si>
     <t>FiveWs.what[x]</t>
+  </si>
+  <si>
+    <t>eventCoding</t>
   </si>
   <si>
     <t>MessageHeader.event[x].id</t>
@@ -1174,7 +1184,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AL49"/>
+  <dimension ref="A1:AL50"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1184,7 +1194,7 @@
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
     <col min="1" max="1" width="42.99609375" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="11.1328125" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="12.296875" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="38.81640625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="5.8984375" customWidth="true" bestFit="true" hidden="true"/>
     <col min="5" max="5" width="4.69921875" customWidth="true" bestFit="true"/>
@@ -2383,16 +2393,14 @@
         <v>39</v>
       </c>
       <c r="AA11" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AB11" t="s" s="2">
-        <v>39</v>
-      </c>
+        <v>114</v>
+      </c>
+      <c r="AB11" s="2"/>
       <c r="AC11" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AD11" t="s" s="2">
-        <v>39</v>
+        <v>115</v>
       </c>
       <c r="AE11" t="s" s="2">
         <v>105</v>
@@ -2410,20 +2418,22 @@
         <v>60</v>
       </c>
       <c r="AJ11" t="s" s="2">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="AK11" t="s" s="2">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="AL11" t="s" s="2">
-        <v>116</v>
+        <v>118</v>
       </c>
     </row>
     <row r="12" hidden="true">
       <c r="A12" t="s" s="2">
-        <v>117</v>
-      </c>
-      <c r="B12" s="2"/>
+        <v>105</v>
+      </c>
+      <c r="B12" t="s" s="2">
+        <v>119</v>
+      </c>
       <c r="C12" t="s" s="2">
         <v>39</v>
       </c>
@@ -2441,19 +2451,23 @@
         <v>39</v>
       </c>
       <c r="I12" t="s" s="2">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="J12" t="s" s="2">
-        <v>50</v>
+        <v>106</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>118</v>
+        <v>107</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>119</v>
-      </c>
-      <c r="M12" s="2"/>
-      <c r="N12" s="2"/>
+        <v>108</v>
+      </c>
+      <c r="M12" t="s" s="2">
+        <v>109</v>
+      </c>
+      <c r="N12" t="s" s="2">
+        <v>110</v>
+      </c>
       <c r="O12" t="s" s="2">
         <v>39</v>
       </c>
@@ -2477,13 +2491,13 @@
         <v>39</v>
       </c>
       <c r="W12" t="s" s="2">
-        <v>39</v>
+        <v>111</v>
       </c>
       <c r="X12" t="s" s="2">
-        <v>39</v>
+        <v>112</v>
       </c>
       <c r="Y12" t="s" s="2">
-        <v>39</v>
+        <v>113</v>
       </c>
       <c r="Z12" t="s" s="2">
         <v>39</v>
@@ -2501,10 +2515,10 @@
         <v>39</v>
       </c>
       <c r="AE12" t="s" s="2">
-        <v>120</v>
+        <v>105</v>
       </c>
       <c r="AF12" t="s" s="2">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="AG12" t="s" s="2">
         <v>48</v>
@@ -2513,32 +2527,32 @@
         <v>39</v>
       </c>
       <c r="AI12" t="s" s="2">
-        <v>39</v>
+        <v>60</v>
       </c>
       <c r="AJ12" t="s" s="2">
-        <v>39</v>
+        <v>116</v>
       </c>
       <c r="AK12" t="s" s="2">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="AL12" t="s" s="2">
-        <v>39</v>
+        <v>118</v>
       </c>
     </row>
     <row r="13" hidden="true">
       <c r="A13" t="s" s="2">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="B13" s="2"/>
       <c r="C13" t="s" s="2">
-        <v>93</v>
+        <v>39</v>
       </c>
       <c r="D13" s="2"/>
       <c r="E13" t="s" s="2">
         <v>40</v>
       </c>
       <c r="F13" t="s" s="2">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="G13" t="s" s="2">
         <v>39</v>
@@ -2550,17 +2564,15 @@
         <v>39</v>
       </c>
       <c r="J13" t="s" s="2">
-        <v>94</v>
+        <v>50</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>95</v>
+        <v>121</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>123</v>
-      </c>
-      <c r="M13" t="s" s="2">
-        <v>97</v>
-      </c>
+        <v>122</v>
+      </c>
+      <c r="M13" s="2"/>
       <c r="N13" s="2"/>
       <c r="O13" t="s" s="2">
         <v>39</v>
@@ -2597,37 +2609,37 @@
         <v>39</v>
       </c>
       <c r="AA13" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AB13" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AC13" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AD13" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AE13" t="s" s="2">
+        <v>123</v>
+      </c>
+      <c r="AF13" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AG13" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="AH13" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AI13" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AJ13" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AK13" t="s" s="2">
         <v>124</v>
-      </c>
-      <c r="AB13" t="s" s="2">
-        <v>125</v>
-      </c>
-      <c r="AC13" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AD13" t="s" s="2">
-        <v>126</v>
-      </c>
-      <c r="AE13" t="s" s="2">
-        <v>127</v>
-      </c>
-      <c r="AF13" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AG13" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AH13" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AI13" t="s" s="2">
-        <v>99</v>
-      </c>
-      <c r="AJ13" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AK13" t="s" s="2">
-        <v>121</v>
       </c>
       <c r="AL13" t="s" s="2">
         <v>39</v>
@@ -2635,18 +2647,18 @@
     </row>
     <row r="14" hidden="true">
       <c r="A14" t="s" s="2">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="B14" s="2"/>
       <c r="C14" t="s" s="2">
-        <v>39</v>
+        <v>93</v>
       </c>
       <c r="D14" s="2"/>
       <c r="E14" t="s" s="2">
         <v>40</v>
       </c>
       <c r="F14" t="s" s="2">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="G14" t="s" s="2">
         <v>39</v>
@@ -2655,29 +2667,27 @@
         <v>39</v>
       </c>
       <c r="I14" t="s" s="2">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="J14" t="s" s="2">
-        <v>62</v>
+        <v>94</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>129</v>
+        <v>95</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>131</v>
-      </c>
-      <c r="N14" t="s" s="2">
-        <v>132</v>
-      </c>
+        <v>97</v>
+      </c>
+      <c r="N14" s="2"/>
       <c r="O14" t="s" s="2">
         <v>39</v>
       </c>
       <c r="P14" s="2"/>
       <c r="Q14" t="s" s="2">
-        <v>133</v>
+        <v>39</v>
       </c>
       <c r="R14" t="s" s="2">
         <v>39</v>
@@ -2707,37 +2717,37 @@
         <v>39</v>
       </c>
       <c r="AA14" t="s" s="2">
-        <v>39</v>
+        <v>127</v>
       </c>
       <c r="AB14" t="s" s="2">
-        <v>39</v>
+        <v>128</v>
       </c>
       <c r="AC14" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AD14" t="s" s="2">
-        <v>39</v>
+        <v>129</v>
       </c>
       <c r="AE14" t="s" s="2">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="AF14" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AG14" t="s" s="2">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="AH14" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AI14" t="s" s="2">
-        <v>60</v>
+        <v>99</v>
       </c>
       <c r="AJ14" t="s" s="2">
-        <v>135</v>
+        <v>39</v>
       </c>
       <c r="AK14" t="s" s="2">
-        <v>136</v>
+        <v>124</v>
       </c>
       <c r="AL14" t="s" s="2">
         <v>39</v>
@@ -2745,7 +2755,7 @@
     </row>
     <row r="15" hidden="true">
       <c r="A15" t="s" s="2">
-        <v>137</v>
+        <v>131</v>
       </c>
       <c r="B15" s="2"/>
       <c r="C15" t="s" s="2">
@@ -2768,18 +2778,20 @@
         <v>49</v>
       </c>
       <c r="J15" t="s" s="2">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>139</v>
+        <v>133</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>140</v>
-      </c>
-      <c r="N15" s="2"/>
+        <v>134</v>
+      </c>
+      <c r="N15" t="s" s="2">
+        <v>135</v>
+      </c>
       <c r="O15" t="s" s="2">
         <v>39</v>
       </c>
@@ -2788,7 +2800,7 @@
         <v>39</v>
       </c>
       <c r="R15" t="s" s="2">
-        <v>39</v>
+        <v>136</v>
       </c>
       <c r="S15" t="s" s="2">
         <v>39</v>
@@ -2827,7 +2839,7 @@
         <v>39</v>
       </c>
       <c r="AE15" t="s" s="2">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="AF15" t="s" s="2">
         <v>40</v>
@@ -2842,10 +2854,10 @@
         <v>60</v>
       </c>
       <c r="AJ15" t="s" s="2">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="AK15" t="s" s="2">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="AL15" t="s" s="2">
         <v>39</v>
@@ -2853,7 +2865,7 @@
     </row>
     <row r="16" hidden="true">
       <c r="A16" t="s" s="2">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="B16" s="2"/>
       <c r="C16" t="s" s="2">
@@ -2876,18 +2888,18 @@
         <v>49</v>
       </c>
       <c r="J16" t="s" s="2">
-        <v>68</v>
+        <v>50</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>146</v>
-      </c>
-      <c r="M16" s="2"/>
-      <c r="N16" t="s" s="2">
-        <v>147</v>
-      </c>
+        <v>142</v>
+      </c>
+      <c r="M16" t="s" s="2">
+        <v>143</v>
+      </c>
+      <c r="N16" s="2"/>
       <c r="O16" t="s" s="2">
         <v>39</v>
       </c>
@@ -2935,7 +2947,7 @@
         <v>39</v>
       </c>
       <c r="AE16" t="s" s="2">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="AF16" t="s" s="2">
         <v>40</v>
@@ -2950,10 +2962,10 @@
         <v>60</v>
       </c>
       <c r="AJ16" t="s" s="2">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="AK16" t="s" s="2">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="AL16" t="s" s="2">
         <v>39</v>
@@ -2961,7 +2973,7 @@
     </row>
     <row r="17" hidden="true">
       <c r="A17" t="s" s="2">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="B17" s="2"/>
       <c r="C17" t="s" s="2">
@@ -2984,17 +2996,17 @@
         <v>49</v>
       </c>
       <c r="J17" t="s" s="2">
-        <v>50</v>
+        <v>68</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="M17" s="2"/>
       <c r="N17" t="s" s="2">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="O17" t="s" s="2">
         <v>39</v>
@@ -3043,7 +3055,7 @@
         <v>39</v>
       </c>
       <c r="AE17" t="s" s="2">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="AF17" t="s" s="2">
         <v>40</v>
@@ -3058,10 +3070,10 @@
         <v>60</v>
       </c>
       <c r="AJ17" t="s" s="2">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="AK17" t="s" s="2">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="AL17" t="s" s="2">
         <v>39</v>
@@ -3069,7 +3081,7 @@
     </row>
     <row r="18" hidden="true">
       <c r="A18" t="s" s="2">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="B18" s="2"/>
       <c r="C18" t="s" s="2">
@@ -3092,19 +3104,17 @@
         <v>49</v>
       </c>
       <c r="J18" t="s" s="2">
-        <v>159</v>
+        <v>50</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>161</v>
-      </c>
-      <c r="M18" t="s" s="2">
-        <v>162</v>
-      </c>
+        <v>156</v>
+      </c>
+      <c r="M18" s="2"/>
       <c r="N18" t="s" s="2">
-        <v>163</v>
+        <v>157</v>
       </c>
       <c r="O18" t="s" s="2">
         <v>39</v>
@@ -3153,7 +3163,7 @@
         <v>39</v>
       </c>
       <c r="AE18" t="s" s="2">
-        <v>164</v>
+        <v>158</v>
       </c>
       <c r="AF18" t="s" s="2">
         <v>40</v>
@@ -3168,10 +3178,10 @@
         <v>60</v>
       </c>
       <c r="AJ18" t="s" s="2">
-        <v>165</v>
+        <v>159</v>
       </c>
       <c r="AK18" t="s" s="2">
-        <v>166</v>
+        <v>160</v>
       </c>
       <c r="AL18" t="s" s="2">
         <v>39</v>
@@ -3179,7 +3189,7 @@
     </row>
     <row r="19" hidden="true">
       <c r="A19" t="s" s="2">
-        <v>167</v>
+        <v>161</v>
       </c>
       <c r="B19" s="2"/>
       <c r="C19" t="s" s="2">
@@ -3190,7 +3200,7 @@
         <v>40</v>
       </c>
       <c r="F19" t="s" s="2">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="G19" t="s" s="2">
         <v>39</v>
@@ -3202,19 +3212,19 @@
         <v>49</v>
       </c>
       <c r="J19" t="s" s="2">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>170</v>
+        <v>164</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>171</v>
+        <v>165</v>
       </c>
       <c r="N19" t="s" s="2">
-        <v>172</v>
+        <v>166</v>
       </c>
       <c r="O19" t="s" s="2">
         <v>39</v>
@@ -3269,7 +3279,7 @@
         <v>40</v>
       </c>
       <c r="AG19" t="s" s="2">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="AH19" t="s" s="2">
         <v>39</v>
@@ -3278,18 +3288,18 @@
         <v>60</v>
       </c>
       <c r="AJ19" t="s" s="2">
-        <v>39</v>
+        <v>168</v>
       </c>
       <c r="AK19" t="s" s="2">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="AL19" t="s" s="2">
-        <v>174</v>
+        <v>39</v>
       </c>
     </row>
     <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="B20" s="2"/>
       <c r="C20" t="s" s="2">
@@ -3300,7 +3310,7 @@
         <v>40</v>
       </c>
       <c r="F20" t="s" s="2">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="G20" t="s" s="2">
         <v>39</v>
@@ -3309,19 +3319,23 @@
         <v>39</v>
       </c>
       <c r="I20" t="s" s="2">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>50</v>
+        <v>171</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>118</v>
+        <v>172</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>119</v>
-      </c>
-      <c r="M20" s="2"/>
-      <c r="N20" s="2"/>
+        <v>173</v>
+      </c>
+      <c r="M20" t="s" s="2">
+        <v>174</v>
+      </c>
+      <c r="N20" t="s" s="2">
+        <v>175</v>
+      </c>
       <c r="O20" t="s" s="2">
         <v>39</v>
       </c>
@@ -3369,44 +3383,44 @@
         <v>39</v>
       </c>
       <c r="AE20" t="s" s="2">
-        <v>120</v>
+        <v>170</v>
       </c>
       <c r="AF20" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AG20" t="s" s="2">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="AH20" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AI20" t="s" s="2">
-        <v>39</v>
+        <v>60</v>
       </c>
       <c r="AJ20" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AK20" t="s" s="2">
-        <v>121</v>
+        <v>176</v>
       </c>
       <c r="AL20" t="s" s="2">
-        <v>39</v>
+        <v>177</v>
       </c>
     </row>
     <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="B21" s="2"/>
       <c r="C21" t="s" s="2">
-        <v>93</v>
+        <v>39</v>
       </c>
       <c r="D21" s="2"/>
       <c r="E21" t="s" s="2">
         <v>40</v>
       </c>
       <c r="F21" t="s" s="2">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="G21" t="s" s="2">
         <v>39</v>
@@ -3418,17 +3432,15 @@
         <v>39</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>94</v>
+        <v>50</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>95</v>
+        <v>121</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>123</v>
-      </c>
-      <c r="M21" t="s" s="2">
-        <v>97</v>
-      </c>
+        <v>122</v>
+      </c>
+      <c r="M21" s="2"/>
       <c r="N21" s="2"/>
       <c r="O21" t="s" s="2">
         <v>39</v>
@@ -3477,25 +3489,25 @@
         <v>39</v>
       </c>
       <c r="AE21" t="s" s="2">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="AF21" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AG21" t="s" s="2">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="AH21" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AI21" t="s" s="2">
-        <v>99</v>
+        <v>39</v>
       </c>
       <c r="AJ21" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AK21" t="s" s="2">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="AL21" t="s" s="2">
         <v>39</v>
@@ -3503,11 +3515,11 @@
     </row>
     <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="B22" s="2"/>
       <c r="C22" t="s" s="2">
-        <v>178</v>
+        <v>93</v>
       </c>
       <c r="D22" s="2"/>
       <c r="E22" t="s" s="2">
@@ -3520,26 +3532,24 @@
         <v>39</v>
       </c>
       <c r="H22" t="s" s="2">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="I22" t="s" s="2">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="J22" t="s" s="2">
         <v>94</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>179</v>
+        <v>95</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>180</v>
+        <v>126</v>
       </c>
       <c r="M22" t="s" s="2">
         <v>97</v>
       </c>
-      <c r="N22" t="s" s="2">
-        <v>103</v>
-      </c>
+      <c r="N22" s="2"/>
       <c r="O22" t="s" s="2">
         <v>39</v>
       </c>
@@ -3587,7 +3597,7 @@
         <v>39</v>
       </c>
       <c r="AE22" t="s" s="2">
-        <v>181</v>
+        <v>130</v>
       </c>
       <c r="AF22" t="s" s="2">
         <v>40</v>
@@ -3605,7 +3615,7 @@
         <v>39</v>
       </c>
       <c r="AK22" t="s" s="2">
-        <v>91</v>
+        <v>124</v>
       </c>
       <c r="AL22" t="s" s="2">
         <v>39</v>
@@ -3613,40 +3623,42 @@
     </row>
     <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="B23" s="2"/>
       <c r="C23" t="s" s="2">
-        <v>39</v>
+        <v>181</v>
       </c>
       <c r="D23" s="2"/>
       <c r="E23" t="s" s="2">
         <v>40</v>
       </c>
       <c r="F23" t="s" s="2">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="G23" t="s" s="2">
         <v>39</v>
       </c>
       <c r="H23" t="s" s="2">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="I23" t="s" s="2">
         <v>49</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>50</v>
+        <v>94</v>
       </c>
       <c r="K23" t="s" s="2">
+        <v>182</v>
+      </c>
+      <c r="L23" t="s" s="2">
         <v>183</v>
       </c>
-      <c r="L23" t="s" s="2">
-        <v>184</v>
-      </c>
-      <c r="M23" s="2"/>
+      <c r="M23" t="s" s="2">
+        <v>97</v>
+      </c>
       <c r="N23" t="s" s="2">
-        <v>185</v>
+        <v>103</v>
       </c>
       <c r="O23" t="s" s="2">
         <v>39</v>
@@ -3695,25 +3707,25 @@
         <v>39</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="AF23" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AG23" t="s" s="2">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="AH23" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AI23" t="s" s="2">
-        <v>60</v>
+        <v>99</v>
       </c>
       <c r="AJ23" t="s" s="2">
-        <v>186</v>
+        <v>39</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>187</v>
+        <v>91</v>
       </c>
       <c r="AL23" t="s" s="2">
         <v>39</v>
@@ -3721,7 +3733,7 @@
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" t="s" s="2">
@@ -3744,17 +3756,17 @@
         <v>49</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>189</v>
+        <v>50</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="M24" s="2"/>
       <c r="N24" t="s" s="2">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="O24" t="s" s="2">
         <v>39</v>
@@ -3803,7 +3815,7 @@
         <v>39</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="AF24" t="s" s="2">
         <v>40</v>
@@ -3818,10 +3830,10 @@
         <v>60</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>39</v>
+        <v>189</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="AL24" t="s" s="2">
         <v>39</v>
@@ -3829,7 +3841,7 @@
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" t="s" s="2">
@@ -3837,7 +3849,7 @@
       </c>
       <c r="D25" s="2"/>
       <c r="E25" t="s" s="2">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="F25" t="s" s="2">
         <v>48</v>
@@ -3852,19 +3864,17 @@
         <v>49</v>
       </c>
       <c r="J25" t="s" s="2">
+        <v>192</v>
+      </c>
+      <c r="K25" t="s" s="2">
+        <v>193</v>
+      </c>
+      <c r="L25" t="s" s="2">
+        <v>194</v>
+      </c>
+      <c r="M25" s="2"/>
+      <c r="N25" t="s" s="2">
         <v>195</v>
-      </c>
-      <c r="K25" t="s" s="2">
-        <v>196</v>
-      </c>
-      <c r="L25" t="s" s="2">
-        <v>197</v>
-      </c>
-      <c r="M25" t="s" s="2">
-        <v>198</v>
-      </c>
-      <c r="N25" t="s" s="2">
-        <v>199</v>
       </c>
       <c r="O25" t="s" s="2">
         <v>39</v>
@@ -3913,10 +3923,10 @@
         <v>39</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="AG25" t="s" s="2">
         <v>48</v>
@@ -3928,10 +3938,10 @@
         <v>60</v>
       </c>
       <c r="AJ25" t="s" s="2">
-        <v>200</v>
+        <v>39</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="AL25" t="s" s="2">
         <v>39</v>
@@ -3939,7 +3949,7 @@
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" t="s" s="2">
@@ -3947,7 +3957,7 @@
       </c>
       <c r="D26" s="2"/>
       <c r="E26" t="s" s="2">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="F26" t="s" s="2">
         <v>48</v>
@@ -3962,17 +3972,19 @@
         <v>49</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>204</v>
+        <v>199</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>205</v>
-      </c>
-      <c r="M26" s="2"/>
+        <v>200</v>
+      </c>
+      <c r="M26" t="s" s="2">
+        <v>201</v>
+      </c>
       <c r="N26" t="s" s="2">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="O26" t="s" s="2">
         <v>39</v>
@@ -4021,10 +4033,10 @@
         <v>39</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>48</v>
@@ -4036,18 +4048,18 @@
         <v>60</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>174</v>
+        <v>39</v>
       </c>
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
@@ -4070,19 +4082,17 @@
         <v>49</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>211</v>
-      </c>
-      <c r="M27" t="s" s="2">
-        <v>212</v>
-      </c>
+        <v>208</v>
+      </c>
+      <c r="M27" s="2"/>
       <c r="N27" t="s" s="2">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="O27" t="s" s="2">
         <v>39</v>
@@ -4131,7 +4141,7 @@
         <v>39</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="AF27" t="s" s="2">
         <v>40</v>
@@ -4146,18 +4156,18 @@
         <v>60</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>174</v>
+        <v>177</v>
       </c>
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
@@ -4168,7 +4178,7 @@
         <v>40</v>
       </c>
       <c r="F28" t="s" s="2">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="G28" t="s" s="2">
         <v>39</v>
@@ -4180,19 +4190,19 @@
         <v>49</v>
       </c>
       <c r="J28" t="s" s="2">
+        <v>206</v>
+      </c>
+      <c r="K28" t="s" s="2">
+        <v>213</v>
+      </c>
+      <c r="L28" t="s" s="2">
         <v>214</v>
       </c>
-      <c r="K28" t="s" s="2">
+      <c r="M28" t="s" s="2">
         <v>215</v>
       </c>
-      <c r="L28" t="s" s="2">
-        <v>216</v>
-      </c>
-      <c r="M28" t="s" s="2">
-        <v>217</v>
-      </c>
       <c r="N28" t="s" s="2">
-        <v>218</v>
+        <v>209</v>
       </c>
       <c r="O28" t="s" s="2">
         <v>39</v>
@@ -4241,7 +4251,7 @@
         <v>39</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="AF28" t="s" s="2">
         <v>40</v>
@@ -4256,18 +4266,18 @@
         <v>60</v>
       </c>
       <c r="AJ28" t="s" s="2">
-        <v>219</v>
+        <v>210</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>220</v>
+        <v>211</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>221</v>
+        <v>177</v>
       </c>
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>222</v>
+        <v>216</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
@@ -4290,19 +4300,19 @@
         <v>49</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>223</v>
+        <v>218</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>224</v>
+        <v>219</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="N29" t="s" s="2">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="O29" t="s" s="2">
         <v>39</v>
@@ -4351,7 +4361,7 @@
         <v>39</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>222</v>
+        <v>216</v>
       </c>
       <c r="AF29" t="s" s="2">
         <v>40</v>
@@ -4366,18 +4376,18 @@
         <v>60</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>221</v>
+        <v>224</v>
       </c>
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
@@ -4385,10 +4395,10 @@
       </c>
       <c r="D30" s="2"/>
       <c r="E30" t="s" s="2">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="F30" t="s" s="2">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="G30" t="s" s="2">
         <v>39</v>
@@ -4400,17 +4410,19 @@
         <v>49</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>168</v>
+        <v>217</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>229</v>
-      </c>
-      <c r="M30" s="2"/>
+        <v>227</v>
+      </c>
+      <c r="M30" t="s" s="2">
+        <v>220</v>
+      </c>
       <c r="N30" t="s" s="2">
-        <v>230</v>
+        <v>221</v>
       </c>
       <c r="O30" t="s" s="2">
         <v>39</v>
@@ -4459,10 +4471,10 @@
         <v>39</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>48</v>
@@ -4474,18 +4486,18 @@
         <v>60</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>39</v>
+        <v>228</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>232</v>
+        <v>224</v>
       </c>
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
@@ -4493,7 +4505,7 @@
       </c>
       <c r="D31" s="2"/>
       <c r="E31" t="s" s="2">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="F31" t="s" s="2">
         <v>48</v>
@@ -4505,19 +4517,21 @@
         <v>39</v>
       </c>
       <c r="I31" t="s" s="2">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>50</v>
+        <v>171</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>118</v>
+        <v>231</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>119</v>
+        <v>232</v>
       </c>
       <c r="M31" s="2"/>
-      <c r="N31" s="2"/>
+      <c r="N31" t="s" s="2">
+        <v>233</v>
+      </c>
       <c r="O31" t="s" s="2">
         <v>39</v>
       </c>
@@ -4565,10 +4579,10 @@
         <v>39</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>120</v>
+        <v>230</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>48</v>
@@ -4577,32 +4591,32 @@
         <v>39</v>
       </c>
       <c r="AI31" t="s" s="2">
-        <v>39</v>
+        <v>60</v>
       </c>
       <c r="AJ31" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>121</v>
+        <v>234</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>39</v>
+        <v>235</v>
       </c>
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
-        <v>93</v>
+        <v>39</v>
       </c>
       <c r="D32" s="2"/>
       <c r="E32" t="s" s="2">
         <v>40</v>
       </c>
       <c r="F32" t="s" s="2">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="G32" t="s" s="2">
         <v>39</v>
@@ -4614,17 +4628,15 @@
         <v>39</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>94</v>
+        <v>50</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>95</v>
+        <v>121</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>123</v>
-      </c>
-      <c r="M32" t="s" s="2">
-        <v>97</v>
-      </c>
+        <v>122</v>
+      </c>
+      <c r="M32" s="2"/>
       <c r="N32" s="2"/>
       <c r="O32" t="s" s="2">
         <v>39</v>
@@ -4673,25 +4685,25 @@
         <v>39</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="AF32" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AG32" t="s" s="2">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="AH32" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AI32" t="s" s="2">
-        <v>99</v>
+        <v>39</v>
       </c>
       <c r="AJ32" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="AL32" t="s" s="2">
         <v>39</v>
@@ -4699,11 +4711,11 @@
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
-        <v>178</v>
+        <v>93</v>
       </c>
       <c r="D33" s="2"/>
       <c r="E33" t="s" s="2">
@@ -4716,26 +4728,24 @@
         <v>39</v>
       </c>
       <c r="H33" t="s" s="2">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="I33" t="s" s="2">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="J33" t="s" s="2">
         <v>94</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>179</v>
+        <v>95</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>180</v>
+        <v>126</v>
       </c>
       <c r="M33" t="s" s="2">
         <v>97</v>
       </c>
-      <c r="N33" t="s" s="2">
-        <v>103</v>
-      </c>
+      <c r="N33" s="2"/>
       <c r="O33" t="s" s="2">
         <v>39</v>
       </c>
@@ -4783,7 +4793,7 @@
         <v>39</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>181</v>
+        <v>130</v>
       </c>
       <c r="AF33" t="s" s="2">
         <v>40</v>
@@ -4801,7 +4811,7 @@
         <v>39</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>91</v>
+        <v>124</v>
       </c>
       <c r="AL33" t="s" s="2">
         <v>39</v>
@@ -4809,40 +4819,42 @@
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
-        <v>39</v>
+        <v>181</v>
       </c>
       <c r="D34" s="2"/>
       <c r="E34" t="s" s="2">
         <v>40</v>
       </c>
       <c r="F34" t="s" s="2">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="G34" t="s" s="2">
         <v>39</v>
       </c>
       <c r="H34" t="s" s="2">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="I34" t="s" s="2">
         <v>49</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>50</v>
+        <v>94</v>
       </c>
       <c r="K34" t="s" s="2">
+        <v>182</v>
+      </c>
+      <c r="L34" t="s" s="2">
         <v>183</v>
       </c>
-      <c r="L34" t="s" s="2">
-        <v>237</v>
-      </c>
-      <c r="M34" s="2"/>
+      <c r="M34" t="s" s="2">
+        <v>97</v>
+      </c>
       <c r="N34" t="s" s="2">
-        <v>238</v>
+        <v>103</v>
       </c>
       <c r="O34" t="s" s="2">
         <v>39</v>
@@ -4891,25 +4903,25 @@
         <v>39</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>236</v>
+        <v>184</v>
       </c>
       <c r="AF34" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AG34" t="s" s="2">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="AH34" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AI34" t="s" s="2">
-        <v>60</v>
+        <v>99</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>239</v>
+        <v>39</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>240</v>
+        <v>91</v>
       </c>
       <c r="AL34" t="s" s="2">
         <v>39</v>
@@ -4917,7 +4929,7 @@
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
@@ -4943,14 +4955,14 @@
         <v>50</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>242</v>
+        <v>186</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="M35" s="2"/>
       <c r="N35" t="s" s="2">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="O35" t="s" s="2">
         <v>39</v>
@@ -4999,7 +5011,7 @@
         <v>39</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="AF35" t="s" s="2">
         <v>40</v>
@@ -5014,10 +5026,10 @@
         <v>60</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="AL35" t="s" s="2">
         <v>39</v>
@@ -5025,7 +5037,7 @@
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
@@ -5051,14 +5063,14 @@
         <v>50</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="M36" s="2"/>
       <c r="N36" t="s" s="2">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="O36" t="s" s="2">
         <v>39</v>
@@ -5107,7 +5119,7 @@
         <v>39</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="AF36" t="s" s="2">
         <v>40</v>
@@ -5122,10 +5134,10 @@
         <v>60</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="AL36" t="s" s="2">
         <v>39</v>
@@ -5133,7 +5145,7 @@
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
@@ -5156,17 +5168,17 @@
         <v>49</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>253</v>
+        <v>50</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="M37" s="2"/>
       <c r="N37" t="s" s="2">
-        <v>256</v>
+        <v>247</v>
       </c>
       <c r="O37" t="s" s="2">
         <v>39</v>
@@ -5215,7 +5227,7 @@
         <v>39</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="AF37" t="s" s="2">
         <v>40</v>
@@ -5230,10 +5242,10 @@
         <v>60</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="AL37" t="s" s="2">
         <v>39</v>
@@ -5241,7 +5253,7 @@
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
@@ -5249,7 +5261,7 @@
       </c>
       <c r="D38" s="2"/>
       <c r="E38" t="s" s="2">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="F38" t="s" s="2">
         <v>48</v>
@@ -5264,19 +5276,17 @@
         <v>49</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>195</v>
+        <v>256</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>261</v>
-      </c>
-      <c r="M38" t="s" s="2">
-        <v>198</v>
-      </c>
+        <v>258</v>
+      </c>
+      <c r="M38" s="2"/>
       <c r="N38" t="s" s="2">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="O38" t="s" s="2">
         <v>39</v>
@@ -5325,10 +5335,10 @@
         <v>39</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>48</v>
@@ -5340,10 +5350,10 @@
         <v>60</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="AL38" t="s" s="2">
         <v>39</v>
@@ -5351,7 +5361,7 @@
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
@@ -5359,10 +5369,10 @@
       </c>
       <c r="D39" s="2"/>
       <c r="E39" t="s" s="2">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="F39" t="s" s="2">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="G39" t="s" s="2">
         <v>39</v>
@@ -5374,19 +5384,19 @@
         <v>49</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>217</v>
+        <v>201</v>
       </c>
       <c r="N39" t="s" s="2">
-        <v>218</v>
+        <v>265</v>
       </c>
       <c r="O39" t="s" s="2">
         <v>39</v>
@@ -5435,10 +5445,10 @@
         <v>39</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>48</v>
@@ -5450,18 +5460,18 @@
         <v>60</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="AL39" t="s" s="2">
-        <v>270</v>
+        <v>39</v>
       </c>
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" t="s" s="2">
@@ -5484,17 +5494,19 @@
         <v>49</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>272</v>
+        <v>206</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>274</v>
-      </c>
-      <c r="M40" s="2"/>
+        <v>270</v>
+      </c>
+      <c r="M40" t="s" s="2">
+        <v>220</v>
+      </c>
       <c r="N40" t="s" s="2">
-        <v>275</v>
+        <v>221</v>
       </c>
       <c r="O40" t="s" s="2">
         <v>39</v>
@@ -5519,13 +5531,13 @@
         <v>39</v>
       </c>
       <c r="W40" t="s" s="2">
-        <v>111</v>
+        <v>39</v>
       </c>
       <c r="X40" t="s" s="2">
-        <v>276</v>
+        <v>39</v>
       </c>
       <c r="Y40" t="s" s="2">
-        <v>277</v>
+        <v>39</v>
       </c>
       <c r="Z40" t="s" s="2">
         <v>39</v>
@@ -5543,7 +5555,7 @@
         <v>39</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="AF40" t="s" s="2">
         <v>40</v>
@@ -5558,18 +5570,18 @@
         <v>60</v>
       </c>
       <c r="AJ40" t="s" s="2">
-        <v>278</v>
+        <v>271</v>
       </c>
       <c r="AK40" t="s" s="2">
-        <v>279</v>
+        <v>272</v>
       </c>
       <c r="AL40" t="s" s="2">
-        <v>280</v>
+        <v>273</v>
       </c>
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>281</v>
+        <v>274</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" t="s" s="2">
@@ -5580,7 +5592,7 @@
         <v>40</v>
       </c>
       <c r="F41" t="s" s="2">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="G41" t="s" s="2">
         <v>39</v>
@@ -5592,16 +5604,18 @@
         <v>49</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>168</v>
+        <v>275</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>282</v>
+        <v>276</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>283</v>
+        <v>277</v>
       </c>
       <c r="M41" s="2"/>
-      <c r="N41" s="2"/>
+      <c r="N41" t="s" s="2">
+        <v>278</v>
+      </c>
       <c r="O41" t="s" s="2">
         <v>39</v>
       </c>
@@ -5625,13 +5639,13 @@
         <v>39</v>
       </c>
       <c r="W41" t="s" s="2">
-        <v>39</v>
+        <v>111</v>
       </c>
       <c r="X41" t="s" s="2">
-        <v>39</v>
+        <v>279</v>
       </c>
       <c r="Y41" t="s" s="2">
-        <v>39</v>
+        <v>280</v>
       </c>
       <c r="Z41" t="s" s="2">
         <v>39</v>
@@ -5649,7 +5663,7 @@
         <v>39</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>281</v>
+        <v>274</v>
       </c>
       <c r="AF41" t="s" s="2">
         <v>40</v>
@@ -5664,18 +5678,18 @@
         <v>60</v>
       </c>
       <c r="AJ41" t="s" s="2">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="AK41" t="s" s="2">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="AL41" t="s" s="2">
-        <v>39</v>
+        <v>283</v>
       </c>
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" t="s" s="2">
@@ -5695,16 +5709,16 @@
         <v>39</v>
       </c>
       <c r="I42" t="s" s="2">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>50</v>
+        <v>171</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>118</v>
+        <v>285</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>119</v>
+        <v>286</v>
       </c>
       <c r="M42" s="2"/>
       <c r="N42" s="2"/>
@@ -5755,7 +5769,7 @@
         <v>39</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>120</v>
+        <v>284</v>
       </c>
       <c r="AF42" t="s" s="2">
         <v>40</v>
@@ -5767,13 +5781,13 @@
         <v>39</v>
       </c>
       <c r="AI42" t="s" s="2">
-        <v>39</v>
+        <v>60</v>
       </c>
       <c r="AJ42" t="s" s="2">
-        <v>39</v>
+        <v>287</v>
       </c>
       <c r="AK42" t="s" s="2">
-        <v>121</v>
+        <v>288</v>
       </c>
       <c r="AL42" t="s" s="2">
         <v>39</v>
@@ -5781,18 +5795,18 @@
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" t="s" s="2">
-        <v>93</v>
+        <v>39</v>
       </c>
       <c r="D43" s="2"/>
       <c r="E43" t="s" s="2">
         <v>40</v>
       </c>
       <c r="F43" t="s" s="2">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="G43" t="s" s="2">
         <v>39</v>
@@ -5804,17 +5818,15 @@
         <v>39</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>94</v>
+        <v>50</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>95</v>
+        <v>121</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>123</v>
-      </c>
-      <c r="M43" t="s" s="2">
-        <v>97</v>
-      </c>
+        <v>122</v>
+      </c>
+      <c r="M43" s="2"/>
       <c r="N43" s="2"/>
       <c r="O43" t="s" s="2">
         <v>39</v>
@@ -5863,25 +5875,25 @@
         <v>39</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="AF43" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AG43" t="s" s="2">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="AH43" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AI43" t="s" s="2">
-        <v>99</v>
+        <v>39</v>
       </c>
       <c r="AJ43" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AK43" t="s" s="2">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="AL43" t="s" s="2">
         <v>39</v>
@@ -5889,11 +5901,11 @@
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" t="s" s="2">
-        <v>178</v>
+        <v>93</v>
       </c>
       <c r="D44" s="2"/>
       <c r="E44" t="s" s="2">
@@ -5906,26 +5918,24 @@
         <v>39</v>
       </c>
       <c r="H44" t="s" s="2">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="I44" t="s" s="2">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="J44" t="s" s="2">
         <v>94</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>179</v>
+        <v>95</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>180</v>
+        <v>126</v>
       </c>
       <c r="M44" t="s" s="2">
         <v>97</v>
       </c>
-      <c r="N44" t="s" s="2">
-        <v>103</v>
-      </c>
+      <c r="N44" s="2"/>
       <c r="O44" t="s" s="2">
         <v>39</v>
       </c>
@@ -5973,7 +5983,7 @@
         <v>39</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>181</v>
+        <v>130</v>
       </c>
       <c r="AF44" t="s" s="2">
         <v>40</v>
@@ -5991,7 +6001,7 @@
         <v>39</v>
       </c>
       <c r="AK44" t="s" s="2">
-        <v>91</v>
+        <v>124</v>
       </c>
       <c r="AL44" t="s" s="2">
         <v>39</v>
@@ -5999,40 +6009,42 @@
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" t="s" s="2">
-        <v>39</v>
+        <v>181</v>
       </c>
       <c r="D45" s="2"/>
       <c r="E45" t="s" s="2">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="F45" t="s" s="2">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="G45" t="s" s="2">
         <v>39</v>
       </c>
       <c r="H45" t="s" s="2">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="I45" t="s" s="2">
         <v>49</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>290</v>
+        <v>94</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>291</v>
+        <v>182</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>292</v>
-      </c>
-      <c r="M45" s="2"/>
+        <v>183</v>
+      </c>
+      <c r="M45" t="s" s="2">
+        <v>97</v>
+      </c>
       <c r="N45" t="s" s="2">
-        <v>293</v>
+        <v>103</v>
       </c>
       <c r="O45" t="s" s="2">
         <v>39</v>
@@ -6081,25 +6093,25 @@
         <v>39</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>289</v>
+        <v>184</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="AG45" t="s" s="2">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="AH45" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AI45" t="s" s="2">
-        <v>60</v>
+        <v>99</v>
       </c>
       <c r="AJ45" t="s" s="2">
-        <v>294</v>
+        <v>39</v>
       </c>
       <c r="AK45" t="s" s="2">
-        <v>295</v>
+        <v>91</v>
       </c>
       <c r="AL45" t="s" s="2">
         <v>39</v>
@@ -6107,7 +6119,7 @@
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" t="s" s="2">
@@ -6130,19 +6142,17 @@
         <v>49</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>68</v>
+        <v>293</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>298</v>
-      </c>
-      <c r="M46" t="s" s="2">
-        <v>299</v>
-      </c>
+        <v>295</v>
+      </c>
+      <c r="M46" s="2"/>
       <c r="N46" t="s" s="2">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="O46" t="s" s="2">
         <v>39</v>
@@ -6167,13 +6177,13 @@
         <v>39</v>
       </c>
       <c r="W46" t="s" s="2">
-        <v>301</v>
+        <v>39</v>
       </c>
       <c r="X46" t="s" s="2">
-        <v>302</v>
+        <v>39</v>
       </c>
       <c r="Y46" t="s" s="2">
-        <v>303</v>
+        <v>39</v>
       </c>
       <c r="Z46" t="s" s="2">
         <v>39</v>
@@ -6191,7 +6201,7 @@
         <v>39</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="AF46" t="s" s="2">
         <v>48</v>
@@ -6206,10 +6216,10 @@
         <v>60</v>
       </c>
       <c r="AJ46" t="s" s="2">
-        <v>304</v>
+        <v>297</v>
       </c>
       <c r="AK46" t="s" s="2">
-        <v>305</v>
+        <v>298</v>
       </c>
       <c r="AL46" t="s" s="2">
         <v>39</v>
@@ -6217,7 +6227,7 @@
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>306</v>
+        <v>299</v>
       </c>
       <c r="B47" s="2"/>
       <c r="C47" t="s" s="2">
@@ -6225,7 +6235,7 @@
       </c>
       <c r="D47" s="2"/>
       <c r="E47" t="s" s="2">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="F47" t="s" s="2">
         <v>48</v>
@@ -6240,19 +6250,19 @@
         <v>49</v>
       </c>
       <c r="J47" t="s" s="2">
-        <v>307</v>
+        <v>68</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>308</v>
+        <v>300</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>309</v>
+        <v>301</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>310</v>
+        <v>302</v>
       </c>
       <c r="N47" t="s" s="2">
-        <v>311</v>
+        <v>303</v>
       </c>
       <c r="O47" t="s" s="2">
         <v>39</v>
@@ -6277,13 +6287,13 @@
         <v>39</v>
       </c>
       <c r="W47" t="s" s="2">
-        <v>39</v>
+        <v>304</v>
       </c>
       <c r="X47" t="s" s="2">
-        <v>39</v>
+        <v>305</v>
       </c>
       <c r="Y47" t="s" s="2">
-        <v>39</v>
+        <v>306</v>
       </c>
       <c r="Z47" t="s" s="2">
         <v>39</v>
@@ -6301,10 +6311,10 @@
         <v>39</v>
       </c>
       <c r="AE47" t="s" s="2">
-        <v>306</v>
+        <v>299</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>48</v>
@@ -6316,10 +6326,10 @@
         <v>60</v>
       </c>
       <c r="AJ47" t="s" s="2">
-        <v>312</v>
+        <v>307</v>
       </c>
       <c r="AK47" t="s" s="2">
-        <v>313</v>
+        <v>308</v>
       </c>
       <c r="AL47" t="s" s="2">
         <v>39</v>
@@ -6327,7 +6337,7 @@
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>314</v>
+        <v>309</v>
       </c>
       <c r="B48" s="2"/>
       <c r="C48" t="s" s="2">
@@ -6338,7 +6348,7 @@
         <v>40</v>
       </c>
       <c r="F48" t="s" s="2">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="G48" t="s" s="2">
         <v>39</v>
@@ -6350,19 +6360,19 @@
         <v>49</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>315</v>
+        <v>310</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>316</v>
+        <v>311</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>317</v>
+        <v>312</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>318</v>
+        <v>313</v>
       </c>
       <c r="N48" t="s" s="2">
-        <v>319</v>
+        <v>314</v>
       </c>
       <c r="O48" t="s" s="2">
         <v>39</v>
@@ -6411,13 +6421,13 @@
         <v>39</v>
       </c>
       <c r="AE48" t="s" s="2">
-        <v>314</v>
+        <v>309</v>
       </c>
       <c r="AF48" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AG48" t="s" s="2">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="AH48" t="s" s="2">
         <v>39</v>
@@ -6426,10 +6436,10 @@
         <v>60</v>
       </c>
       <c r="AJ48" t="s" s="2">
-        <v>39</v>
+        <v>315</v>
       </c>
       <c r="AK48" t="s" s="2">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="AL48" t="s" s="2">
         <v>39</v>
@@ -6437,7 +6447,7 @@
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="B49" s="2"/>
       <c r="C49" t="s" s="2">
@@ -6448,7 +6458,7 @@
         <v>40</v>
       </c>
       <c r="F49" t="s" s="2">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G49" t="s" s="2">
         <v>39</v>
@@ -6460,17 +6470,19 @@
         <v>49</v>
       </c>
       <c r="J49" t="s" s="2">
+        <v>318</v>
+      </c>
+      <c r="K49" t="s" s="2">
+        <v>319</v>
+      </c>
+      <c r="L49" t="s" s="2">
+        <v>320</v>
+      </c>
+      <c r="M49" t="s" s="2">
+        <v>321</v>
+      </c>
+      <c r="N49" t="s" s="2">
         <v>322</v>
-      </c>
-      <c r="K49" t="s" s="2">
-        <v>323</v>
-      </c>
-      <c r="L49" t="s" s="2">
-        <v>324</v>
-      </c>
-      <c r="M49" s="2"/>
-      <c r="N49" t="s" s="2">
-        <v>325</v>
       </c>
       <c r="O49" t="s" s="2">
         <v>39</v>
@@ -6519,13 +6531,13 @@
         <v>39</v>
       </c>
       <c r="AE49" t="s" s="2">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="AF49" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AG49" t="s" s="2">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="AH49" t="s" s="2">
         <v>39</v>
@@ -6537,14 +6549,122 @@
         <v>39</v>
       </c>
       <c r="AK49" t="s" s="2">
+        <v>323</v>
+      </c>
+      <c r="AL49" t="s" s="2">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="50" hidden="true">
+      <c r="A50" t="s" s="2">
+        <v>324</v>
+      </c>
+      <c r="B50" s="2"/>
+      <c r="C50" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="D50" s="2"/>
+      <c r="E50" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="F50" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="G50" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="H50" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="I50" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="J50" t="s" s="2">
+        <v>325</v>
+      </c>
+      <c r="K50" t="s" s="2">
         <v>326</v>
       </c>
-      <c r="AL49" t="s" s="2">
+      <c r="L50" t="s" s="2">
+        <v>327</v>
+      </c>
+      <c r="M50" s="2"/>
+      <c r="N50" t="s" s="2">
+        <v>328</v>
+      </c>
+      <c r="O50" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="P50" s="2"/>
+      <c r="Q50" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="R50" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="S50" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="T50" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="U50" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="V50" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="W50" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="X50" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="Y50" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="Z50" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AA50" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AB50" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AC50" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AD50" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AE50" t="s" s="2">
+        <v>324</v>
+      </c>
+      <c r="AF50" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AG50" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="AH50" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AI50" t="s" s="2">
+        <v>60</v>
+      </c>
+      <c r="AJ50" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AK50" t="s" s="2">
+        <v>329</v>
+      </c>
+      <c r="AL50" t="s" s="2">
         <v>39</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AL49">
+  <autoFilter ref="A1:AL50">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -6554,7 +6674,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI48">
+  <conditionalFormatting sqref="A2:AI49">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>

--- a/StructureDefinition-be-mycareneteagreementmessageheader.xlsx
+++ b/StructureDefinition-be-mycareneteagreementmessageheader.xlsx
@@ -442,7 +442,7 @@
     <t>Need to be unambiguous about the source of the definition of the symbol.</t>
   </si>
   <si>
-    <t>https://www.mycarenet.be/fhir/CodeSystem/message-events</t>
+    <t>https://www.ehealth.fgov.be/standards/fhir/CodeSystem/message-events</t>
   </si>
   <si>
     <t>Coding.system</t>
